--- a/aichan/550878539816210068_2021-07-24_12-10-05.xlsx
+++ b/aichan/550878539816210068_2021-07-24_12-10-05.xlsx
@@ -5778,7 +5778,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -13964,7 +13964,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -20057,7 +20057,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -21702,7 +21702,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -23683,7 +23683,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28134,7 +28134,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -39290,7 +39290,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -42863,7 +42863,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -47141,7 +47141,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -49025,7 +49025,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -49816,7 +49816,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -50576,7 +50576,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K693" t="inlineStr">
@@ -54025,7 +54025,7 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K740" t="inlineStr">
@@ -57395,7 +57395,7 @@
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K787" t="inlineStr">
@@ -61213,7 +61213,7 @@
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K839" t="inlineStr">
@@ -66043,7 +66043,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K906" t="inlineStr">
@@ -70445,7 +70445,7 @@
       </c>
       <c r="J966" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K966" t="inlineStr">
@@ -71692,7 +71692,7 @@
       </c>
       <c r="J983" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K983" t="inlineStr">
@@ -73513,7 +73513,7 @@
       </c>
       <c r="J1008" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1008" t="inlineStr">
@@ -74543,7 +74543,7 @@
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1022" t="inlineStr">
@@ -74744,7 +74744,7 @@
       </c>
       <c r="J1025" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1025" t="inlineStr">
@@ -74965,7 +74965,7 @@
       </c>
       <c r="J1028" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1028" t="inlineStr">
@@ -75625,7 +75625,7 @@
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1037" t="inlineStr">
@@ -76289,7 +76289,7 @@
       </c>
       <c r="J1046" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1046" t="inlineStr">
@@ -76885,7 +76885,7 @@
       </c>
       <c r="J1054" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1054" t="inlineStr">
@@ -77753,7 +77753,7 @@
         </is>
       </c>
       <c r="I1066" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J1066" t="inlineStr">
         <is>
@@ -79313,7 +79313,7 @@
       </c>
       <c r="J1087" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1087" t="inlineStr">
@@ -80545,7 +80545,7 @@
       </c>
       <c r="J1104" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1104" t="inlineStr">
@@ -81436,7 +81436,7 @@
       </c>
       <c r="J1116" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1116" t="inlineStr">
@@ -83310,7 +83310,7 @@
       </c>
       <c r="J1142" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1142" t="inlineStr">
@@ -83677,7 +83677,7 @@
       </c>
       <c r="J1147" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1147" t="inlineStr">
@@ -89889,7 +89889,7 @@
         </is>
       </c>
       <c r="I1232" t="n">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="J1232" t="inlineStr">
         <is>
@@ -90426,7 +90426,7 @@
       </c>
       <c r="J1239" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1239" t="inlineStr">
@@ -91099,7 +91099,7 @@
       </c>
       <c r="J1248" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1248" t="inlineStr">
@@ -93477,7 +93477,7 @@
         </is>
       </c>
       <c r="I1280" t="n">
-        <v>2952</v>
+        <v>2960</v>
       </c>
       <c r="J1280" t="inlineStr">
         <is>
